--- a/Data/ExperimentalResults.xlsx
+++ b/Data/ExperimentalResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JupyterN\VSA_concepts\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jobqu\OneDrive\PhD\VSA_MEN_concepts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62B334-1620-4B99-8D26-DC12B1B52FD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62B334-1620-4B99-8D26-DC12B1B52FD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16390" windowHeight="8195" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Comparison!$A$1:$D$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Summary!$A$1:$C$69</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -735,15 +741,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,33 +1074,33 @@
   <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="5" customWidth="1"/>
     <col min="6" max="1015" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1161,21 +1163,21 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <f t="shared" ref="C2:C33" si="0">AVERAGE(E2:X2)</f>
         <v>6.875</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <f>_xlfn.STDEV.S(E2:X2)/2</f>
         <v>1.0817718165851311</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>9.5</v>
       </c>
       <c r="F2">
@@ -1237,21 +1239,21 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <f t="shared" si="0"/>
         <v>8.3650000000000002</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D65" si="1">_xlfn.STDEV.S(E3:X3)/2</f>
         <v>0.8031639735577345</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>9.3000000000000007</v>
       </c>
       <c r="F3">
@@ -1313,21 +1315,21 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <f t="shared" si="0"/>
         <v>7.2050000000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f t="shared" si="1"/>
         <v>1.2955871459039643</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>9.1</v>
       </c>
       <c r="F4">
@@ -1389,21 +1391,21 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <f t="shared" si="0"/>
         <v>8.1900000000000013</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>0.86540224903311724</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>8.8000000000000007</v>
       </c>
       <c r="F5">
@@ -1465,21 +1467,21 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>6.9849999999999994</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>1.1406686635478345</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>8.6999999999999993</v>
       </c>
       <c r="F6">
@@ -1541,21 +1543,21 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>7.68</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>1.0718405223087806</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>8.6</v>
       </c>
       <c r="F7">
@@ -1617,21 +1619,21 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <f t="shared" si="0"/>
         <v>7.8250000000000002</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>1.1334478141354465</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>8.5</v>
       </c>
       <c r="F8">
@@ -1693,21 +1695,21 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <f t="shared" si="0"/>
         <v>7.5750000000000002</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>0.85561227692282049</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>8.5</v>
       </c>
       <c r="F9">
@@ -1769,21 +1771,21 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <f t="shared" si="0"/>
         <v>6.8599999999999994</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <f t="shared" si="1"/>
         <v>0.91081224594777166</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>8.1999999999999993</v>
       </c>
       <c r="F10">
@@ -1845,21 +1847,21 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>7.3450000000000006</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <f t="shared" si="1"/>
         <v>0.96265463556169384</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>7.9</v>
       </c>
       <c r="F11">
@@ -1921,21 +1923,21 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>5.9249999999999998</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <f t="shared" si="1"/>
         <v>1.2201029939269366</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>7.5</v>
       </c>
       <c r="F12">
@@ -1997,21 +1999,21 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <f t="shared" si="0"/>
         <v>6.2050000000000001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <f t="shared" si="1"/>
         <v>0.86882785527701822</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>7.1</v>
       </c>
       <c r="F13">
@@ -2073,21 +2075,21 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <f t="shared" si="0"/>
         <v>5.5250000000000004</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <f t="shared" si="1"/>
         <v>1.2125305205057291</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>6.5</v>
       </c>
       <c r="F14">
@@ -2149,21 +2151,21 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>5.71</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>0.78100812045107804</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>6.2</v>
       </c>
       <c r="F15">
@@ -2225,21 +2227,21 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>5.5549999999999997</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <f t="shared" si="1"/>
         <v>1.0578621689147665</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>6.1</v>
       </c>
       <c r="F16">
@@ -2301,21 +2303,21 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>6.4950000000000001</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <f t="shared" si="1"/>
         <v>0.91125636233429619</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>5.9</v>
       </c>
       <c r="F17">
@@ -2377,21 +2379,21 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>3.0300000000000002</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <f t="shared" si="1"/>
         <v>0.87915928740563232</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>5.6</v>
       </c>
       <c r="F18">
@@ -2453,21 +2455,21 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>2.9249999999999998</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <f t="shared" si="1"/>
         <v>0.93286133115157821</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>5.5</v>
       </c>
       <c r="F19">
@@ -2529,21 +2531,21 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>3.07</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <f t="shared" si="1"/>
         <v>0.92239676358586831</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>5.4</v>
       </c>
       <c r="F20">
@@ -2605,21 +2607,21 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>3.8649999999999998</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <f t="shared" si="1"/>
         <v>1.0719233819831089</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>5.3</v>
       </c>
       <c r="F21">
@@ -2681,21 +2683,21 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>3.96</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <f t="shared" si="1"/>
         <v>0.94177883200943358</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>5.2</v>
       </c>
       <c r="F22">
@@ -2757,21 +2759,21 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <f t="shared" si="0"/>
         <v>6.5400000000000009</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <f t="shared" si="1"/>
         <v>1.023461618337749</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>4.8</v>
       </c>
       <c r="F23">
@@ -2833,21 +2835,21 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>5.0350000000000001</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <f t="shared" si="1"/>
         <v>1.0946370463116508</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>4.7</v>
       </c>
       <c r="F24">
@@ -2909,21 +2911,21 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>4.83</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <f t="shared" si="1"/>
         <v>1.0549507346940799</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>4.5999999999999996</v>
       </c>
       <c r="F25">
@@ -2985,21 +2987,21 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>3.875</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <f t="shared" si="1"/>
         <v>0.76894921466689992</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>4.5</v>
       </c>
       <c r="F26">
@@ -3061,21 +3063,21 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>3.5149999999999997</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <f t="shared" si="1"/>
         <v>0.85367240727773841</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>4.3</v>
       </c>
       <c r="F27">
@@ -3137,21 +3139,21 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>3.7600000000000002</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <f t="shared" si="1"/>
         <v>0.93110008507198172</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>4.2</v>
       </c>
       <c r="F28">
@@ -3213,21 +3215,21 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <f t="shared" si="1"/>
         <v>0.70524351897244086</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>4</v>
       </c>
       <c r="F29">
@@ -3289,21 +3291,21 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <f t="shared" si="0"/>
         <v>3.0449999999999999</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <f t="shared" si="1"/>
         <v>0.87936505203290993</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>3.9</v>
       </c>
       <c r="F30">
@@ -3365,21 +3367,21 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <f t="shared" si="0"/>
         <v>3.59</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <f t="shared" si="1"/>
         <v>0.99126447689700581</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>3.8</v>
       </c>
       <c r="F31">
@@ -3441,21 +3443,21 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <f t="shared" si="0"/>
         <v>3.9850000000000003</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <f t="shared" si="1"/>
         <v>1.0765777894987918</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>3.7</v>
       </c>
       <c r="F32">
@@ -3517,21 +3519,21 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <f t="shared" si="0"/>
         <v>2.3149999999999999</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <f t="shared" si="1"/>
         <v>0.65599963896010605</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>3.3</v>
       </c>
       <c r="F33">
@@ -3593,21 +3595,21 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <f t="shared" ref="C34:C65" si="2">AVERAGE(E34:X34)</f>
         <v>3.0100000000000002</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <f t="shared" si="1"/>
         <v>0.79503392843854204</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>3.2</v>
       </c>
       <c r="F34">
@@ -3669,21 +3671,21 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <f t="shared" si="2"/>
         <v>3.55</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <f t="shared" si="1"/>
         <v>0.95248981207426209</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>3</v>
       </c>
       <c r="F35">
@@ -3745,21 +3747,21 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <f t="shared" si="2"/>
         <v>6.5950000000000006</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <f t="shared" si="1"/>
         <v>1.2222148790316356</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>2.9</v>
       </c>
       <c r="F36">
@@ -3821,21 +3823,21 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <f t="shared" si="2"/>
         <v>5.9399999999999995</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <f t="shared" si="1"/>
         <v>1.1707397571396343</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>2.8</v>
       </c>
       <c r="F37">
@@ -3897,21 +3899,21 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="6">
         <f t="shared" si="2"/>
         <v>3.1350000000000002</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <f t="shared" si="1"/>
         <v>0.80070281628079698</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>2.7</v>
       </c>
       <c r="F38">
@@ -3973,21 +3975,21 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="6">
         <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <f t="shared" si="1"/>
         <v>0.95766986949959332</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>2.6</v>
       </c>
       <c r="F39">
@@ -4049,21 +4051,21 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="6">
         <f t="shared" si="2"/>
         <v>1.425</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <f t="shared" si="1"/>
         <v>0.31700697319243881</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>2.5</v>
       </c>
       <c r="F40">
@@ -4125,21 +4127,21 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="6">
         <f t="shared" si="2"/>
         <v>2.42</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <f t="shared" si="1"/>
         <v>0.79993420782093394</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>2.4</v>
       </c>
       <c r="F41">
@@ -4201,21 +4203,21 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="6">
         <f t="shared" si="2"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <f t="shared" si="1"/>
         <v>0.96048233497002622</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>2.4</v>
       </c>
       <c r="F42">
@@ -4277,21 +4279,21 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="6">
         <f t="shared" si="2"/>
         <v>1.2650000000000001</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <f t="shared" si="1"/>
         <v>0.3678797715501485</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F43">
@@ -4353,21 +4355,21 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="6">
         <f t="shared" si="2"/>
         <v>2.0100000000000002</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <f t="shared" si="1"/>
         <v>0.53849204656199545</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F44">
@@ -4429,21 +4431,21 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="6">
         <f t="shared" si="2"/>
         <v>1.56</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <f t="shared" si="1"/>
         <v>0.47528384870738594</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F45">
@@ -4505,21 +4507,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="6">
         <f t="shared" si="2"/>
         <v>1.9550000000000001</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="6">
         <f t="shared" si="1"/>
         <v>0.78614231335179063</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>2.1</v>
       </c>
       <c r="F46">
@@ -4581,21 +4583,21 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="6">
         <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="6">
         <f t="shared" si="1"/>
         <v>1.101434471376687</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>2</v>
       </c>
       <c r="F47">
@@ -4657,21 +4659,21 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="6">
         <f t="shared" si="2"/>
         <v>2.95</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="6">
         <f t="shared" si="1"/>
         <v>0.93857394627785129</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>2</v>
       </c>
       <c r="F48">
@@ -4733,21 +4735,21 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="6">
         <f t="shared" si="2"/>
         <v>4.194</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="6">
         <f t="shared" si="1"/>
         <v>1.4130113420038706</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>1.88</v>
       </c>
       <c r="F49">
@@ -4809,21 +4811,21 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="6">
         <f t="shared" si="2"/>
         <v>2.7890000000000001</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="6">
         <f t="shared" si="1"/>
         <v>1.3935848320825419</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>1.78</v>
       </c>
       <c r="F50">
@@ -4885,21 +4887,21 @@
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="6">
         <f t="shared" si="2"/>
         <v>4.6859999999999999</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="6">
         <f t="shared" si="1"/>
         <v>1.2343039803020461</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>1.72</v>
       </c>
       <c r="F51">
@@ -4961,21 +4963,21 @@
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="6">
         <f t="shared" si="2"/>
         <v>2.9329999999999998</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="6">
         <f t="shared" si="1"/>
         <v>1.0368589966564252</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>1.66</v>
       </c>
       <c r="F52">
@@ -5037,21 +5039,21 @@
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="6">
         <f t="shared" si="2"/>
         <v>2.5804999999999998</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="6">
         <f t="shared" si="1"/>
         <v>0.92773418805399799</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="5">
         <v>1.61</v>
       </c>
       <c r="F53">
@@ -5113,21 +5115,21 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="6">
         <f t="shared" si="2"/>
         <v>2.3780000000000001</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="6">
         <f t="shared" si="1"/>
         <v>0.83772813075163688</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>1.56</v>
       </c>
       <c r="F54">
@@ -5189,21 +5191,21 @@
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="6">
         <f t="shared" si="2"/>
         <v>4.8239999999999998</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="6">
         <f t="shared" si="1"/>
         <v>1.1107778213581021</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>1.48</v>
       </c>
       <c r="F55">
@@ -5265,21 +5267,21 @@
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="6">
         <f t="shared" si="2"/>
         <v>2.371</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="6">
         <f t="shared" si="1"/>
         <v>1.2007869130392435</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>1.42</v>
       </c>
       <c r="F56">
@@ -5341,21 +5343,21 @@
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="6">
         <f t="shared" si="2"/>
         <v>1.8189999999999997</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="6">
         <f t="shared" si="1"/>
         <v>0.67599030668852222</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>1.38</v>
       </c>
       <c r="F57">
@@ -5417,21 +5419,21 @@
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="6">
         <f t="shared" si="2"/>
         <v>1.4664999999999999</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="6">
         <f t="shared" si="1"/>
         <v>0.59334527757542044</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>1.33</v>
       </c>
       <c r="F58">
@@ -5493,21 +5495,21 @@
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="6">
         <f t="shared" si="2"/>
         <v>1.214</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="6">
         <f t="shared" si="1"/>
         <v>0.44666129873705618</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>1.28</v>
       </c>
       <c r="F59">
@@ -5569,21 +5571,21 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="6">
         <f t="shared" si="2"/>
         <v>1.3115000000000001</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="6">
         <f t="shared" si="1"/>
         <v>0.28359197431298511</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>1.23</v>
       </c>
       <c r="F60">
@@ -5645,21 +5647,21 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="6">
         <f t="shared" si="2"/>
         <v>1.1105</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="6">
         <f t="shared" si="1"/>
         <v>0.22360370842419547</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>1.21</v>
       </c>
       <c r="F61">
@@ -5721,21 +5723,21 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="6">
         <f t="shared" si="2"/>
         <v>1.157</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="6">
         <f t="shared" si="1"/>
         <v>0.18233211456021664</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>1.1399999999999999</v>
       </c>
       <c r="F62">
@@ -5797,21 +5799,21 @@
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="6">
         <f t="shared" si="2"/>
         <v>1.1060000000000001</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="6">
         <f t="shared" si="1"/>
         <v>0.15345494795747558</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <v>1.1200000000000001</v>
       </c>
       <c r="F63">
@@ -5873,21 +5875,21 @@
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="6">
         <f t="shared" si="2"/>
         <v>1.0515000000000001</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="6">
         <f t="shared" si="1"/>
         <v>0.11167710739354524</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>1.03</v>
       </c>
       <c r="F64">
@@ -5949,21 +5951,21 @@
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>1</v>
       </c>
       <c r="F65">
@@ -6025,7 +6027,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:X65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X65">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6044,36 +6046,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2">
@@ -6081,19 +6083,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>1.06</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.22571523745873348</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>1.2</v>
       </c>
       <c r="F3">
@@ -6101,19 +6103,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1.105</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0.30689446154389233</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F4">
@@ -6121,19 +6123,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>1.1575</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>0.36464654840428418</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>1.1499999999999999</v>
       </c>
       <c r="F5">
@@ -6141,19 +6143,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>1.105</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>0.44659530720894558</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="F6">
@@ -6161,19 +6163,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>1.31</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0.56745043836444442</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>1.2</v>
       </c>
       <c r="F7">
@@ -6181,19 +6183,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>1.2275</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>0.89640730286604609</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>1.55</v>
       </c>
       <c r="F8">
@@ -6201,19 +6203,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>1.4650000000000001</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>1.1868911181383865</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>1.3</v>
       </c>
       <c r="F9">
@@ -6221,19 +6223,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>1.8199999999999998</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>1.3516461698318289</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>1.4</v>
       </c>
       <c r="F10">
@@ -6241,19 +6243,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>2.35</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>1.6944180805158293</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11">
@@ -6261,19 +6263,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>2.59</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>1.8507182105163509</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>1.8</v>
       </c>
       <c r="F12">
@@ -6281,19 +6283,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>2.92</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>2.0829129400408157</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>1.4</v>
       </c>
       <c r="F13">
@@ -6301,19 +6303,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>4.835</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>2.2046064214921004</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>1.7</v>
       </c>
       <c r="F14">
@@ -6321,19 +6323,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>2.38</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>2.3981571872454155</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>1.6</v>
       </c>
       <c r="F15">
@@ -6341,19 +6343,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>4.6875</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>2.4667192680498569</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>1.75</v>
       </c>
       <c r="F16">
@@ -6361,19 +6363,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>2.7800000000000002</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>2.7908874272494311</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>1.6</v>
       </c>
       <c r="F17">
@@ -6381,19 +6383,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>4.1899999999999995</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>2.8295247880723351</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>1.8</v>
       </c>
       <c r="F18">
@@ -6401,7 +6403,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6439,10 +6441,10 @@
       <c r="A2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -6450,10 +6452,10 @@
       <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1.06666666666667</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.24944382578492899</v>
       </c>
     </row>
@@ -6461,10 +6463,10 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.06666666666667</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.24944382578492899</v>
       </c>
     </row>
@@ -6472,10 +6474,10 @@
       <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.3</v>
       </c>
     </row>
@@ -6483,10 +6485,10 @@
       <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.39581140290126399</v>
       </c>
     </row>
@@ -6494,10 +6496,10 @@
       <c r="A7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.1666666666666701</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.58214163988576595</v>
       </c>
     </row>
@@ -6505,10 +6507,10 @@
       <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.47609522856952302</v>
       </c>
     </row>
@@ -6516,10 +6518,10 @@
       <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1.2333333333333301</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.80346471954626297</v>
       </c>
     </row>
@@ -6527,10 +6529,10 @@
       <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1.2666666666666699</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.51207638319124105</v>
       </c>
     </row>
@@ -6538,10 +6540,10 @@
       <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1.3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.97125348562223102</v>
       </c>
     </row>
@@ -6549,10 +6551,10 @@
       <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1.3333333333333299</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.78881063774661597</v>
       </c>
     </row>
@@ -6560,10 +6562,10 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1.63333333333333</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1.13968806648525</v>
       </c>
     </row>
@@ -6571,10 +6573,10 @@
       <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1.63333333333333</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.2775845264491199</v>
       </c>
     </row>
@@ -6582,10 +6584,10 @@
       <c r="A15" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1.7333333333333301</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>0.99777530313971796</v>
       </c>
     </row>
@@ -6593,10 +6595,10 @@
       <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1.8333333333333299</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1.34370962471642</v>
       </c>
     </row>
@@ -6604,10 +6606,10 @@
       <c r="A17" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1.93333333333333</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1.4360439485692</v>
       </c>
     </row>
@@ -6615,10 +6617,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1.9666666666666699</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1.1967548714010801</v>
       </c>
     </row>
@@ -6626,10 +6628,10 @@
       <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
         <v>1.5275252316519501</v>
       </c>
     </row>
@@ -6637,10 +6639,10 @@
       <c r="A20" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2.06666666666667</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1.65193489244852</v>
       </c>
     </row>
@@ -6648,10 +6650,10 @@
       <c r="A21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>2.1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1.6603212540549701</v>
       </c>
     </row>
@@ -6659,10 +6661,10 @@
       <c r="A22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>2.1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1.9891371663780899</v>
       </c>
     </row>
@@ -6670,10 +6672,10 @@
       <c r="A23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2.2333333333333298</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>1.6669999666733299</v>
       </c>
     </row>
@@ -6681,15 +6683,15 @@
       <c r="A24" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2.2666666666666702</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>1.7499206331208901</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="1">
@@ -6703,10 +6705,10 @@
       <c r="A26" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>1.67630546142402</v>
       </c>
     </row>
@@ -6714,10 +6716,10 @@
       <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>2.3333333333333299</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>2.3428377854407398</v>
       </c>
     </row>
@@ -6725,10 +6727,10 @@
       <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>2.4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1.5832456116050599</v>
       </c>
     </row>
@@ -6736,10 +6738,10 @@
       <c r="A29" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>2.43333333333333</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>1.8917951498216901</v>
       </c>
     </row>
@@ -6747,10 +6749,10 @@
       <c r="A30" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>2.4666666666666699</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>1.62754074876449</v>
       </c>
     </row>
@@ -6758,10 +6760,10 @@
       <c r="A31" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>2.4666666666666699</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>1.7461067804945101</v>
       </c>
     </row>
@@ -6769,10 +6771,10 @@
       <c r="A32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>2.5333333333333301</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>1.5648926125740701</v>
       </c>
     </row>
@@ -6780,15 +6782,15 @@
       <c r="A33" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>2.6333333333333302</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>1.8162843634433701</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>114</v>
       </c>
       <c r="B34" s="1">
@@ -6802,10 +6804,10 @@
       <c r="A35" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>2.7333333333333298</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>1.99888858007533</v>
       </c>
     </row>
@@ -6813,10 +6815,10 @@
       <c r="A36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>2.93333333333333</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>1.6918103387265999</v>
       </c>
     </row>
@@ -6824,10 +6826,10 @@
       <c r="A37" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>2.93333333333333</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>1.8061622912192099</v>
       </c>
     </row>
@@ -6835,10 +6837,10 @@
       <c r="A38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>3.0333333333333301</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>2.1052843566184198</v>
       </c>
     </row>
@@ -6846,10 +6848,10 @@
       <c r="A39" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>3.06666666666667</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1.8607047649270501</v>
       </c>
     </row>
@@ -6857,10 +6859,10 @@
       <c r="A40" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>3.06666666666667</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>2.17460085737335</v>
       </c>
     </row>
@@ -6868,10 +6870,10 @@
       <c r="A41" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>3.1333333333333302</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>1.7650936393165</v>
       </c>
     </row>
@@ -6879,10 +6881,10 @@
       <c r="A42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>3.1333333333333302</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>1.8749814813900301</v>
       </c>
     </row>
@@ -6890,10 +6892,10 @@
       <c r="A43" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>3.4</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>2.56385126973725</v>
       </c>
     </row>
@@ -6901,10 +6903,10 @@
       <c r="A44" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>3.8666666666666698</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>2.3907228102721501</v>
       </c>
     </row>
@@ -6912,10 +6914,10 @@
       <c r="A45" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>3.9</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>2.24127939653523</v>
       </c>
     </row>
@@ -6923,10 +6925,10 @@
       <c r="A46" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="2">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
         <v>2.5690465157330298</v>
       </c>
     </row>
@@ -6934,10 +6936,10 @@
       <c r="A47" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>2.3144473782453301</v>
       </c>
     </row>
@@ -6945,10 +6947,10 @@
       <c r="A48" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>4.1333333333333302</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>2.3342855200015502</v>
       </c>
     </row>
@@ -6956,10 +6958,10 @@
       <c r="A49" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>4.3666666666666698</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>2.4695928589321898</v>
       </c>
     </row>
@@ -6967,10 +6969,10 @@
       <c r="A50" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>4.43333333333333</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>2.2313423961572698</v>
       </c>
     </row>
@@ -6978,10 +6980,10 @@
       <c r="A51" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>4.43333333333333</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>2.5907956735764102</v>
       </c>
     </row>
@@ -6989,10 +6991,10 @@
       <c r="A52" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>4.5333333333333297</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>2.7776888874666201</v>
       </c>
     </row>
@@ -7000,10 +7002,10 @@
       <c r="A53" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>4.8333333333333304</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>2.6718699236468999</v>
       </c>
     </row>
@@ -7011,10 +7013,10 @@
       <c r="A54" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="2">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="B54" s="1">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
         <v>2.6708300832013498</v>
       </c>
     </row>
@@ -7022,10 +7024,10 @@
       <c r="A55" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>5.1333333333333302</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>2.6674998698323402</v>
       </c>
     </row>
@@ -7033,15 +7035,15 @@
       <c r="A56" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>5.1666666666666696</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>2.3392781412697001</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>137</v>
       </c>
       <c r="B57" s="1">
@@ -7055,10 +7057,10 @@
       <c r="A58" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>5.3666666666666698</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>2.5492918406665201</v>
       </c>
     </row>
@@ -7066,10 +7068,10 @@
       <c r="A59" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>5.3666666666666698</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>2.8807792155750001</v>
       </c>
     </row>
@@ -7077,10 +7079,10 @@
       <c r="A60" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>5.43333333333333</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>2.84819631033786</v>
       </c>
     </row>
@@ -7088,10 +7090,10 @@
       <c r="A61" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>5.5333333333333297</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>2.5914388967435702</v>
       </c>
     </row>
@@ -7099,10 +7101,10 @@
       <c r="A62" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>5.5333333333333297</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>3.06304133537604</v>
       </c>
     </row>
@@ -7110,10 +7112,10 @@
       <c r="A63" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>5.7</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>3.2057240471797699</v>
       </c>
     </row>
@@ -7121,10 +7123,10 @@
       <c r="A64" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>5.93333333333333</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>2.87440815164135</v>
       </c>
     </row>
@@ -7132,10 +7134,10 @@
       <c r="A65" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>6.1333333333333302</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>2.7656624683588702</v>
       </c>
     </row>
@@ -7143,10 +7145,10 @@
       <c r="A66" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>6.1333333333333302</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>3.2117838587855698</v>
       </c>
     </row>
@@ -7154,10 +7156,10 @@
       <c r="A67" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>6.4</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>2.8</v>
       </c>
     </row>
@@ -7165,10 +7167,10 @@
       <c r="A68" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>6.5</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>3.0849095070466301</v>
       </c>
     </row>
@@ -7176,10 +7178,10 @@
       <c r="A69" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>6.7</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>2.9569128044860098</v>
       </c>
     </row>
